--- a/src/test/resources/excel/file/NameTagTemplate.xlsx
+++ b/src/test/resources/excel/file/NameTagTemplate.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace-git\beneform4j-excel\src\test\resources\excel\file\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="690" windowWidth="22515" windowHeight="10230"/>
+    <workbookView xWindow="600" yWindow="690" windowWidth="22515" windowHeight="10230" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="California" sheetId="1" r:id="rId1"/>
@@ -22,9 +27,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
-  <si>
-    <t>The State of ${state.name}</t>
-  </si>
   <si>
     <t>County</t>
   </si>
@@ -67,9 +69,6 @@
     <t>FIPS Code</t>
   </si>
   <si>
-    <t>&lt;jt:forEach items="${state.counties}" var="county"&gt;${county.name}</t>
-  </si>
-  <si>
     <t>${county.population}</t>
   </si>
   <si>
@@ -100,9 +99,6 @@
     <t>Catch Phrase</t>
   </si>
   <si>
-    <t>&lt;jt:forEach items="${employees}" var="employee"&gt;${employee.fullName}</t>
-  </si>
-  <si>
     <t>${employee.salary}</t>
   </si>
   <si>
@@ -122,20 +118,32 @@
   </si>
   <si>
     <t>&lt;jt:if test="${employee.getCatchPhrase() != null}" then="${employee.catchPhrase}"/&gt;&lt;/jt:forEach&gt;</t>
+  </si>
+  <si>
+    <t>The State of ${data.state.name}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;jt:forEach items="${data.state.counties}" var="county"&gt;${county.name}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;jt:forEach items="${data.employees}" var="employee"&gt;${employee.fullName}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -143,7 +151,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -161,6 +169,13 @@
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -239,7 +254,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -251,7 +266,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -259,14 +274,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -325,7 +343,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>&lt;jt:forEach items="${state.counties}" var="county"&gt;${county.name}</c:v>
+                  <c:v>&lt;jt:forEach items="${data.state.counties}" var="county"&gt;${county.name}</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -343,6 +361,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F124-4D96-A84B-E77110E91F3D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -352,7 +375,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="60034432"/>
         <c:axId val="73299072"/>
@@ -364,6 +386,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -416,9 +439,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -476,7 +499,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>&lt;jt:forEach items="${employees}" var="employee"&gt;${employee.fullName}</c:v>
+                  <c:v>&lt;jt:forEach items="${data.employees}" var="employee"&gt;${employee.fullName}</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -493,6 +516,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9AE3-4BEA-9052-1F649D6D04AF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -513,6 +541,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -628,7 +657,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -670,7 +699,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -705,7 +734,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -916,23 +945,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.75" customWidth="1"/>
+    <col min="2" max="2" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="9.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -942,60 +971,62 @@
     </row>
     <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>12</v>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1003,68 +1034,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.75" customWidth="1"/>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" customWidth="1"/>
+    <col min="4" max="4" width="29.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="D3" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="6" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>19</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
